--- a/medicine/Mort/Décès_en_1917/Décès_en_1917.xlsx
+++ b/medicine/Mort/Décès_en_1917/Décès_en_1917.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1917</t>
+          <t>Décès_en_1917</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1917</t>
+          <t>Décès_en_1917</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,13 +540,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Henri-Arthur Bonnefoy, peintre français (° 4 avril 1839).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Henri-Arthur Bonnefoy, peintre français (° 4 avril 1839).
 Vladimir Bourliouk, peintre cubiste russe (° 27 mars 1886).
 Jules-Edmond Cuisinier, peintre et graveur français (° 1857).
-Élodie La Villette, peintre française (° 12 avril 1848).
-Janvier
-2 janvier : Léon Flameng, coureur cycliste français (° 30 avril 1877).
+Élodie La Villette, peintre française (° 12 avril 1848).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1917</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1917</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier : Léon Flameng, coureur cycliste français (° 30 avril 1877).
 3 janvier : Lubin de Beauvais, peintre et illustrateur français (° 26 mars 1873).
 4 janvier : Félix Martin, sculpteur et peintre français (° 2 juin 1844).
 10 janvier :
@@ -543,9 +594,43 @@
 20 janvier : Amédée Bollée, fondeur de cloches, et inventeur français, spécialisé dans le domaine de l’automobile (° 10 janvier 1844).
 22 janvier : Bérenger Saunière, religieux français (° 11 avril 1852).
 23 janvier : Luigi Conconi, peintre italien (° 30 mai 1852).
-27 janvier : Paul Pauthe, peintre français (° 21 février 1850).
-Février
-5 février : Charles Meissonier, peintre français (° 11 juillet 1844).
+27 janvier : Paul Pauthe, peintre français (° 21 février 1850).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1917</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1917</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5 février : Charles Meissonier, peintre français (° 11 juillet 1844).
 10 février : John William Waterhouse, peintre britannique (° 6 avril 1849).
 12 février : Giovanni Sottocornola, peintre italien (° 1er août 1855).
 13 février : Henry S. De Forest, homme politique américain (° 16 février 1847).
@@ -560,9 +645,43 @@
 Pietro Barucci, peintre italien (° 20 avril 1845).
 Jean Brunet, peintre français (° 15 février 1849).
 Félix Lafond, peintre, céramiste et conservateur de musée français (° 13 juin 1850).
-28 février : Thomas Saleh, prêtre maronite libanais, martyr, bienheureux (° 3 mai 1879).
-Mars
-6 mars :
+28 février : Thomas Saleh, prêtre maronite libanais, martyr, bienheureux (° 3 mai 1879).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1917</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1917</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6 mars :
 Nikolaï Koulbine, peintre, musicien, mécène, théoricien du théâtre et philosophe russe (° 2 mai 1868).
 Jules Vandenpeereboom, homme politique belge (° 18 mars 1843).
 9 mars : Octavius Pickard-Cambridge, prêtre et zoologiste britannique (° 3 novembre 1828).
@@ -570,9 +689,43 @@
 20 mars : Sophie Cysch, actrice et chanteuse d'opéra suédoise (° 15 octobre 1847).
 22 mars : Prince Youngsun, homme politique coréen (° 25 juin 1870).
 25 mars : Spýros Samáras, compositeur grec (° 17 novembre 1861).
-26 mars : Victor de Carnières, agriculteur, journaliste, homme politique franaçais (° 26 février 1849).
-Avril
-1er avril : Scott Joplin, compositeur de jazz et de ragtime américain (° 24 novembre 1868).
+26 mars : Victor de Carnières, agriculteur, journaliste, homme politique franaçais (° 26 février 1849).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1917</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1917</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Scott Joplin, compositeur de jazz et de ragtime américain (° 24 novembre 1868).
 6 avril : Marie Baudet, peintre française (° 1er octobre 1864).
 10 avril : Louis Édouard Fournier, peintre et illustrateur français (° 12 décembre 1857).
 12 avril : Francis von Bettinger, cardinal allemand, archevêque de Munich (° 17 septembre 1850).
@@ -585,44 +738,248 @@
 Florentino Ballesteros, matador espagnol (° 11 janvier 1893).
 Abel Botelho, écrivain portugais (° 23 septembre 1855).
 27 avril : Teri'inavahoro'a Teha'apapa III de Huahine et Maia'o, dernière reine de Huahine et Maia'o (° 8 août 1879).
-29 avril : Zygmunt Ajdukiewicz, peintre polonais (° 22 janvier 1861).
-Mai
-5 mai : Alexandre Séon, peintre symboliste français (° 18 janvier 1855).
+29 avril : Zygmunt Ajdukiewicz, peintre polonais (° 22 janvier 1861).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1917</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1917</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>5 mai : Alexandre Séon, peintre symboliste français (° 18 janvier 1855).
 10 mai : Joseph B. Foraker, homme politique américain (° 5 juillet 1846).
 16 mai : Fernand Halphen, compositeur français (° 18 février 1872).
 26 mai : Valéry Müller, peintre, dessinateur, caricaturiste, illustrateur et journaliste français (° 23 avril 1873).
-28 mai : Raoul Warocqué, capitaliste belge (° 4 février 1870).
-Juin
-4 juin : Paul Klimsch, peintre et illustrateur allemand (° 15 juin 1868).
+28 mai : Raoul Warocqué, capitaliste belge (° 4 février 1870).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1917</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1917</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4 juin : Paul Klimsch, peintre et illustrateur allemand (° 15 juin 1868).
 7 juin : Willie Redmond, homme politique britannique (irlandais) (° 13 avril 1861).
 9 juin : Gaetano de Martini, peintre italien (° 28 mai 1840).
 13 juin : Louis-Philippe Hébert, sculpteur (° 27 janvier 1850).
 16 juin : Dominique-Ceslas Gonthier, dominicain (° 22 septembre 1853).
 17 juin : Ernst Stöhr, peintre, poète et musicien autrichien (° 1er novembre 1860).
 29 juin : François Schollaert, homme politique belge (° 19 août 1851).
-30 juin : Antonio de La Gandara, peintre, graveur, lithographe, dessinateur et pastelliste français (° 16 décembre 1861).
-Juillet
-2 juillet : Herbert Beerbohm Tree, acteur et directeur de théâtre anglais (° 17 décembre 1852).
+30 juin : Antonio de La Gandara, peintre, graveur, lithographe, dessinateur et pastelliste français (° 16 décembre 1861).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1917</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1917</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 juillet : Herbert Beerbohm Tree, acteur et directeur de théâtre anglais (° 17 décembre 1852).
 14 juillet : Octave Lapize, coureur cycliste français (° 24 octobre 1887).
 16 juillet : Philipp Scharwenka, compositeur et pédagogue allemand d’origine tchéco-polonaise (° 16 février 1847).
 17 juillet : Victor Masson, industriel, peintre et illustrateur français (° 10 mai 1849).
-30 juillet : Jules Greindl, homme politique belge (° 7 septembre 1835).
-Août
-10 août : François Lafourcade, coureur cycliste français (° 8 novembre 1881).
+30 juillet : Jules Greindl, homme politique belge (° 7 septembre 1835).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1917</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1917</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>10 août : François Lafourcade, coureur cycliste français (° 8 novembre 1881).
 13 août : Quinto Cenni, peintre, dessinateur et illustrateur italien (° 20 mars 1845).
 18 août : George L. Rives, homme politique américain (° 1er mai 1849).
 22 août : Matthijs Maris, peintre néerlandais (° 17 août 1839).
-27 août : Ion Grămadă, écrivain, historien et journaliste roumain (° 3 janvier 1886).
-Septembre
-8 septembre : Charles Lefebvre, compositeur français (° 19 juin 1843).
+27 août : Ion Grămadă, écrivain, historien et journaliste roumain (° 3 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1917</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1917</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>8 septembre : Charles Lefebvre, compositeur français (° 19 juin 1843).
 9 septembre : Madge Syers, patineuse artistique britannique (° 16 septembre 1881).
 11 septembre : Georges Guynemer, aviateur français (° 24 décembre 1894).
 21 septembre : Louis Cottereau, coureur cycliste français (° 11 février 1869).
 23 septembre : Edvard Westman, peintre suédois (° 16 mai 1865).
 27 septembre : Edgar Degas, peintre français (° 19 juillet 1834).
-28 septembre : Jean Michel Prosper Guérin, peintre français (° 23 mars 1838).
-Octobre
-5 octobre : Guglielmo Ciardi, dessinateur et peintre italien (° 13 septembre 1842).
+28 septembre : Jean Michel Prosper Guérin, peintre français (° 23 mars 1838).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1917</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1917</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5 octobre : Guglielmo Ciardi, dessinateur et peintre italien (° 13 septembre 1842).
 7 octobre : Sergueï Vassilkovski, peintre russe (° 19 octobre 1854).
 8 octobre : Alphonse Chigot, peintre français (° 23 octobre 1824).
 9 octobre : Hussein Kamal, sultan égyptien (° 21 novembre 1853).
@@ -631,18 +988,86 @@
 25 octobre :
 Hans Olde, peintre allemand (° 27 avril 1855).
 Jack Standing, acteur anglais (° 10 février 1886).
-31 octobre : Gilbert White Ganong, lieutenant-gouverneur du Nouveau-Brunswick (° 22 mai 1851).
-Novembre
-2 novembre : Maurice Hagemans, peintre belge (° 27 août 1852).
+31 octobre : Gilbert White Ganong, lieutenant-gouverneur du Nouveau-Brunswick (° 22 mai 1851).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1917</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1917</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2 novembre : Maurice Hagemans, peintre belge (° 27 août 1852).
 3 novembre :
 Léon Bloy, écrivain français (° 11 juillet 1846).
 Ernest Jean Chevalier, peintre français (° 20 mars 1862).
 7 novembre : Themistokli Gërmënji, nationaliste albanais et homme politique de la République de Korça (° 1871).
 11 novembre : Lydia Liliuokalani, dernière reine du royaume d'Hawaï (° 2 septembre 1838).
 15 novembre : Émile Durkheim, sociologue français (° 15 avril 1858).
-17 novembre : Auguste Rodin, sculpteur français (° 12 novembre 1840).
-Décembre
-3 décembre : Carlo Oriani, coureur cycliste italien (° 5 novembre 1888).
+17 novembre : Auguste Rodin, sculpteur français (° 12 novembre 1840).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1917</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1917</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3 décembre : Carlo Oriani, coureur cycliste italien (° 5 novembre 1888).
 7 décembre : Léon Minkus, compositeur autrichien (° 23 mars 1826).
 8 décembre : Mendele-Mokher-Sefarim, écrivain russe de langue hébraïque et yiddish (° 12 janvier 1836).
 9 décembre : Henri Roger, homme politique belge (° 25 juillet 1861).
@@ -656,9 +1081,43 @@
 29 décembre : Adam Mez, orientaliste allemand (° 8 avril 1869).
 31 décembre :
 Federico Zandomeneghi, peintre italien (° 2 juin 1841).
-Karl Meyer, as de l'aviation allemande de la Première Guerre mondiale (° 29 janvier 1894).
-Date inconnue
-Élodie La Villette, peintre française (° 12 avril 1842).</t>
+Karl Meyer, as de l'aviation allemande de la Première Guerre mondiale (° 29 janvier 1894).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1917</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1917</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Élodie La Villette, peintre française (° 12 avril 1842).</t>
         </is>
       </c>
     </row>
